--- a/doc/skillProductionCalc.xlsx
+++ b/doc/skillProductionCalc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Product 1</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Input</t>
-  </si>
-  <si>
-    <t>Min Mult</t>
   </si>
   <si>
     <t>Base Prod</t>
@@ -403,7 +400,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +410,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -499,30 +496,9 @@
         <v>12050</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <f>C7/C4</f>
-        <v>750</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:F8" si="1">D7/D4</f>
-        <v>37.5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f>FLOOR(G7/G4,1)</f>
@@ -531,22 +507,22 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f>$C$10*C4</f>
         <v>470</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:F12" si="2">$C$10*D4</f>
+        <f t="shared" ref="D12:F12" si="1">$C$10*D4</f>
         <v>940</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7050</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3525</v>
       </c>
       <c r="G12">
@@ -556,43 +532,43 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f>C7/C12</f>
         <v>15.957446808510639</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:F13" si="3">D7/D12</f>
+        <f t="shared" ref="D13:F13" si="2">D7/D12</f>
         <v>0.7978723404255319</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53900709219858156</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f>MIN(C13,1)</f>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:F14" si="4">MIN(D13,1)</f>
+        <f t="shared" ref="D14:F14" si="3">MIN(D13,1)</f>
         <v>0.7978723404255319</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.53900709219858156</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14">
@@ -602,7 +578,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <f>G14/C2</f>
@@ -611,7 +587,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <f>C10*C16</f>
